--- a/data/view/payroll/template_cos_staff.xlsx
+++ b/data/view/payroll/template_cos_staff.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="259">
   <si>
     <t>PAYROLL</t>
   </si>
@@ -730,12 +730,6 @@
   </si>
   <si>
     <t>Fund Cluster: IGP</t>
-  </si>
-  <si>
-    <t>5% premium                               June 1 - 15, 2021</t>
-  </si>
-  <si>
-    <t>IGP</t>
   </si>
   <si>
     <r>
@@ -912,6 +906,9 @@
   </si>
   <si>
     <t>Last Name, First Name</t>
+  </si>
+  <si>
+    <t>5% premium</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1667,9 +1664,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1742,40 +1736,165 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1786,132 +1905,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2206,11 +2200,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2239,67 +2233,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1">
-      <c r="A1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="148"/>
+      <c r="A1" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="138"/>
     </row>
     <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="151"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="141"/>
     </row>
     <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2327,10 +2321,10 @@
     </row>
     <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="142" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="152"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2386,108 +2380,108 @@
       <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="153" t="s">
+      <c r="E6" s="155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="165" t="s">
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="165" t="s">
-        <v>232</v>
-      </c>
-      <c r="N6" s="165" t="s">
+      <c r="M6" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="N6" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="159" t="s">
+      <c r="O6" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="161"/>
-      <c r="V6" s="138" t="s">
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="141" t="s">
+      <c r="W6" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="144" t="s">
+      <c r="X6" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="145" t="s">
+      <c r="Y6" s="135" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="142"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="168" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="159" t="s">
+      <c r="P7" s="159"/>
+      <c r="Q7" s="160"/>
+      <c r="R7" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="160"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="138" t="s">
+      <c r="S7" s="150"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="139"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="145"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="135"/>
     </row>
     <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="143"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
       <c r="O8" s="15">
         <v>0.03</v>
       </c>
@@ -2506,1282 +2500,1224 @@
       <c r="T8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="140"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="145"/>
-    </row>
-    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="171" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="72"/>
-    </row>
-    <row r="10" spans="1:25" s="73" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="77" t="s">
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="135"/>
+    </row>
+    <row r="9" spans="1:25" s="73" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E9" s="78">
         <v>500</v>
       </c>
-      <c r="F10" s="79">
-        <v>0</v>
-      </c>
-      <c r="G10" s="80" t="s">
+      <c r="F9" s="79">
+        <v>0</v>
+      </c>
+      <c r="G9" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="81">
-        <v>0</v>
-      </c>
-      <c r="I10" s="80" t="s">
+      <c r="H9" s="81">
+        <v>0</v>
+      </c>
+      <c r="I9" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="81">
-        <v>0</v>
-      </c>
-      <c r="K10" s="82" t="s">
+      <c r="J9" s="81">
+        <v>0</v>
+      </c>
+      <c r="K9" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="90"/>
-    </row>
-    <row r="11" spans="1:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="37"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="90"/>
+    </row>
+    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="91" t="s">
+        <v>255</v>
+      </c>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="41"/>
+    </row>
+    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
     </row>
     <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="134" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="92" t="s">
-        <v>257</v>
-      </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="41"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="47"/>
     </row>
     <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="116" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
       <c r="O13" s="43"/>
       <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="136"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="49"/>
     </row>
     <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
+      <c r="B14" s="118" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="46"/>
+      <c r="R14" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="119"/>
       <c r="X14" s="46"/>
-      <c r="Y14" s="47"/>
+      <c r="Y14" s="51" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="42"/>
-      <c r="B15" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
       <c r="P15" s="44"/>
       <c r="Q15" s="43"/>
-      <c r="R15" s="117" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="46"/>
       <c r="X15" s="46"/>
-      <c r="Y15" s="49"/>
+      <c r="Y15" s="47"/>
     </row>
     <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="121" t="s">
-        <v>42</v>
-      </c>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="W16" s="122"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="46"/>
       <c r="X16" s="46"/>
-      <c r="Y16" s="51" t="s">
-        <v>43</v>
-      </c>
+      <c r="Y16" s="47"/>
     </row>
     <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="121" t="s">
+        <v>254</v>
+      </c>
       <c r="C17" s="121"/>
       <c r="D17" s="121"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="61"/>
     </row>
     <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="47"/>
+      <c r="A18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
     </row>
     <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="126" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="61"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
     </row>
     <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="43"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="174"/>
-      <c r="T20" s="174"/>
-      <c r="U20" s="174"/>
-      <c r="V20" s="174"/>
-      <c r="W20" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
     </row>
     <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="42"/>
-      <c r="B21" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="130"/>
+      <c r="B21" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
       <c r="L21" s="50"/>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="44"/>
       <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="118" t="s">
+        <v>230</v>
+      </c>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="123" t="s">
+      <c r="W21" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="123"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
     </row>
     <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="118" t="s">
-        <v>54</v>
-      </c>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="64"/>
     </row>
     <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="123"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
     </row>
     <row r="24" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="64"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
     </row>
     <row r="25" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
     </row>
     <row r="26" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
     </row>
     <row r="27" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
     </row>
     <row r="28" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
     </row>
     <row r="29" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
     </row>
     <row r="30" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
     </row>
     <row r="31" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
     </row>
     <row r="32" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
     </row>
     <row r="33" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
     </row>
     <row r="34" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
     </row>
     <row r="35" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
     </row>
     <row r="36" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
     </row>
     <row r="37" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="94"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
     </row>
     <row r="38" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="94"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="94"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="94"/>
-      <c r="W38" s="94"/>
-      <c r="X38" s="94"/>
-      <c r="Y38" s="94"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="93"/>
     </row>
     <row r="39" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="94"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="94"/>
-      <c r="W39" s="94"/>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="94"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
     </row>
     <row r="40" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="94"/>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="94"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
     </row>
     <row r="41" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="94"/>
-      <c r="W41" s="94"/>
-      <c r="X41" s="94"/>
-      <c r="Y41" s="94"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="93"/>
     </row>
     <row r="42" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
     </row>
     <row r="43" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="94"/>
-      <c r="T43" s="94"/>
-      <c r="U43" s="94"/>
-      <c r="V43" s="94"/>
-      <c r="W43" s="94"/>
-      <c r="X43" s="94"/>
-      <c r="Y43" s="94"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
     </row>
     <row r="44" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="94"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="93"/>
+      <c r="T44" s="93"/>
+      <c r="U44" s="93"/>
+      <c r="V44" s="93"/>
+      <c r="W44" s="93"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="93"/>
     </row>
     <row r="45" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="94"/>
-      <c r="W45" s="94"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="93"/>
+      <c r="V45" s="93"/>
+      <c r="W45" s="93"/>
+      <c r="X45" s="93"/>
+      <c r="Y45" s="93"/>
     </row>
     <row r="46" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94"/>
-      <c r="Y46" s="94"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="93"/>
+      <c r="T46" s="93"/>
+      <c r="U46" s="93"/>
+      <c r="V46" s="93"/>
+      <c r="W46" s="93"/>
+      <c r="X46" s="93"/>
+      <c r="Y46" s="93"/>
     </row>
     <row r="47" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="95"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="94"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="94"/>
-      <c r="Y47" s="94"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="93"/>
+      <c r="U47" s="93"/>
+      <c r="V47" s="93"/>
+      <c r="W47" s="93"/>
+      <c r="X47" s="93"/>
+      <c r="Y47" s="93"/>
     </row>
     <row r="48" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="94"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="95"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="94"/>
-      <c r="W48" s="94"/>
-      <c r="X48" s="94"/>
-      <c r="Y48" s="94"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="93"/>
+      <c r="T48" s="93"/>
+      <c r="U48" s="93"/>
+      <c r="V48" s="93"/>
+      <c r="W48" s="93"/>
+      <c r="X48" s="93"/>
+      <c r="Y48" s="93"/>
     </row>
     <row r="49" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="94"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="95"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="95"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="94"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="94"/>
-      <c r="W49" s="94"/>
-      <c r="X49" s="94"/>
-      <c r="Y49" s="94"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="93"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="93"/>
+      <c r="W49" s="93"/>
+      <c r="X49" s="93"/>
+      <c r="Y49" s="93"/>
     </row>
     <row r="50" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="95"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="95"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="94"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="94"/>
-      <c r="W50" s="94"/>
-      <c r="X50" s="94"/>
-      <c r="Y50" s="94"/>
-    </row>
-    <row r="51" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="94"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="95"/>
-      <c r="S51" s="94"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="94"/>
-      <c r="X51" s="94"/>
-      <c r="Y51" s="94"/>
-    </row>
-    <row r="52" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="95"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="93"/>
+      <c r="T50" s="93"/>
+      <c r="U50" s="93"/>
+      <c r="V50" s="93"/>
+      <c r="W50" s="93"/>
+      <c r="X50" s="93"/>
+      <c r="Y50" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="45">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A2:Y2"/>
     <mergeCell ref="B3:C3"/>
@@ -3798,37 +3734,35 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="S11:Y11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="R13:U13"/>
     <mergeCell ref="V6:V8"/>
     <mergeCell ref="W6:W8"/>
     <mergeCell ref="X6:X8"/>
     <mergeCell ref="Y6:Y8"/>
     <mergeCell ref="U7:U8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E15:K15"/>
     <mergeCell ref="E16:K16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="B19:K20"/>
-    <mergeCell ref="R19:V20"/>
+    <mergeCell ref="B17:K18"/>
+    <mergeCell ref="R17:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="S20:U20"/>
     <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:K21"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="W23:Y23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="24" orientation="landscape" useFirstPageNumber="1" horizontalDpi="360" verticalDpi="360" copies="5" r:id="rId1"/>
@@ -3876,65 +3810,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27" customHeight="1">
-      <c r="A1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="148"/>
+      <c r="A1" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="138"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="149" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="151"/>
+      <c r="A2" s="139" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="141"/>
     </row>
     <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3960,10 +3894,10 @@
     </row>
     <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="152"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4015,98 +3949,98 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="153" t="s">
+      <c r="E6" s="155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="165" t="s">
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="159" t="s">
+      <c r="M6" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="161"/>
-      <c r="T6" s="138" t="s">
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="141" t="s">
+      <c r="U6" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="144" t="s">
+      <c r="V6" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="145" t="s">
+      <c r="W6" s="135" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="142"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="168" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="169"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="159" t="s">
+      <c r="N7" s="159"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="138" t="s">
+      <c r="Q7" s="150"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="139"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="145"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="132"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="135"/>
     </row>
     <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="143"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="167"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="157"/>
       <c r="M8" s="15">
         <v>0.03</v>
       </c>
@@ -4125,11 +4059,11 @@
       <c r="R8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="140"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="145"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="135"/>
     </row>
     <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="171" t="s">
@@ -4165,13 +4099,13 @@
       <c r="B10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="97">
         <v>566.64</v>
       </c>
       <c r="F10" s="34">
@@ -4212,7 +4146,7 @@
         <f>P10+Q10</f>
         <v>400</v>
       </c>
-      <c r="S10" s="99">
+      <c r="S10" s="98">
         <f>R10+O10</f>
         <v>400</v>
       </c>
@@ -4224,8 +4158,8 @@
         <f t="shared" ref="U10:U32" si="0">A10</f>
         <v>1</v>
       </c>
-      <c r="V10" s="100"/>
-      <c r="W10" s="101"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="100"/>
     </row>
     <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -4234,13 +4168,13 @@
       <c r="B11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="97">
         <v>566.64</v>
       </c>
       <c r="F11" s="34">
@@ -4277,7 +4211,7 @@
         <f t="shared" ref="R11:R32" si="1">P11+Q11</f>
         <v>400</v>
       </c>
-      <c r="S11" s="99">
+      <c r="S11" s="98">
         <f>R11+O11</f>
         <v>400</v>
       </c>
@@ -4289,8 +4223,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="V11" s="100"/>
-      <c r="W11" s="101"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="100"/>
     </row>
     <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -4302,10 +4236,10 @@
       <c r="C12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="97">
         <v>566.64</v>
       </c>
       <c r="F12" s="34">
@@ -4342,7 +4276,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S12" s="99">
+      <c r="S12" s="98">
         <f t="shared" ref="S12:S32" si="4">R12+O12</f>
         <v>400</v>
       </c>
@@ -4354,8 +4288,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="V12" s="102"/>
-      <c r="W12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="100"/>
     </row>
     <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="19">
@@ -4368,10 +4302,10 @@
       <c r="C13" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="97">
         <v>566.64</v>
       </c>
       <c r="F13" s="34">
@@ -4408,7 +4342,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S13" s="99">
+      <c r="S13" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -4421,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="V13" s="32"/>
-      <c r="W13" s="101"/>
+      <c r="W13" s="100"/>
     </row>
     <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="19">
@@ -4434,10 +4368,10 @@
       <c r="C14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="103">
+      <c r="E14" s="102">
         <v>534.59</v>
       </c>
       <c r="F14" s="34">
@@ -4474,7 +4408,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S14" s="99">
+      <c r="S14" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -4487,7 +4421,7 @@
         <v>5</v>
       </c>
       <c r="V14" s="32"/>
-      <c r="W14" s="101"/>
+      <c r="W14" s="100"/>
     </row>
     <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="19">
@@ -4500,10 +4434,10 @@
       <c r="C15" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="97">
         <v>566.64</v>
       </c>
       <c r="F15" s="34">
@@ -4540,7 +4474,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S15" s="99">
+      <c r="S15" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -4553,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="V15" s="32"/>
-      <c r="W15" s="101"/>
+      <c r="W15" s="100"/>
     </row>
     <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="19">
@@ -4561,15 +4495,15 @@
         <v>7</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="97">
         <v>566.64</v>
       </c>
       <c r="F16" s="34">
@@ -4606,7 +4540,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S16" s="99">
+      <c r="S16" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -4619,7 +4553,7 @@
         <v>7</v>
       </c>
       <c r="V16" s="32"/>
-      <c r="W16" s="101"/>
+      <c r="W16" s="100"/>
     </row>
     <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="19">
@@ -4627,15 +4561,15 @@
         <v>8</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="97">
         <v>566.64</v>
       </c>
       <c r="F17" s="34">
@@ -4672,7 +4606,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S17" s="99">
+      <c r="S17" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -4685,7 +4619,7 @@
         <v>8</v>
       </c>
       <c r="V17" s="32"/>
-      <c r="W17" s="101"/>
+      <c r="W17" s="100"/>
     </row>
     <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="19">
@@ -4698,10 +4632,10 @@
       <c r="C18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="103">
+      <c r="E18" s="102">
         <v>534.59</v>
       </c>
       <c r="F18" s="34">
@@ -4738,7 +4672,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S18" s="99">
+      <c r="S18" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -4751,7 +4685,7 @@
         <v>9</v>
       </c>
       <c r="V18" s="32"/>
-      <c r="W18" s="101"/>
+      <c r="W18" s="100"/>
     </row>
     <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="19">
@@ -4762,12 +4696,12 @@
         <v>40</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="97">
         <v>566.64</v>
       </c>
       <c r="F19" s="34">
@@ -4804,7 +4738,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S19" s="99">
+      <c r="S19" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -4817,7 +4751,7 @@
         <v>10</v>
       </c>
       <c r="V19" s="32"/>
-      <c r="W19" s="101"/>
+      <c r="W19" s="100"/>
     </row>
     <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="19">
@@ -4830,10 +4764,10 @@
       <c r="C20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E20" s="97">
         <v>534.59</v>
       </c>
       <c r="F20" s="34">
@@ -4870,7 +4804,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S20" s="99">
+      <c r="S20" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -4883,9 +4817,9 @@
         <v>11</v>
       </c>
       <c r="V20" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="W20" s="101"/>
+        <v>237</v>
+      </c>
+      <c r="W20" s="100"/>
     </row>
     <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="19">
@@ -4901,7 +4835,7 @@
       <c r="D21" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="97">
         <f>15000/22</f>
         <v>681.81818181818187</v>
       </c>
@@ -4939,7 +4873,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S21" s="99">
+      <c r="S21" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -4952,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="V21" s="32"/>
-      <c r="W21" s="101"/>
+      <c r="W21" s="100"/>
     </row>
     <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="19">
@@ -4968,7 +4902,7 @@
       <c r="D22" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="97">
         <f>15000/22</f>
         <v>681.81818181818187</v>
       </c>
@@ -5009,7 +4943,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S22" s="99">
+      <c r="S22" s="98">
         <f t="shared" si="4"/>
         <v>604.5454545454545</v>
       </c>
@@ -5033,15 +4967,15 @@
         <v>14</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="103">
+      <c r="E23" s="102">
         <v>534.59</v>
       </c>
       <c r="F23" s="34">
@@ -5078,7 +5012,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S23" s="99">
+      <c r="S23" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -5099,15 +5033,15 @@
         <v>15</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="103">
+      <c r="E24" s="102">
         <v>503.09</v>
       </c>
       <c r="F24" s="34">
@@ -5144,7 +5078,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S24" s="99">
+      <c r="S24" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -5170,10 +5104,10 @@
       <c r="C25" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="103">
+      <c r="E25" s="102">
         <v>534.59</v>
       </c>
       <c r="F25" s="34">
@@ -5210,7 +5144,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S25" s="99">
+      <c r="S25" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -5236,10 +5170,10 @@
       <c r="C26" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="103">
+      <c r="E26" s="102">
         <v>534.59</v>
       </c>
       <c r="F26" s="34">
@@ -5276,7 +5210,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S26" s="99">
+      <c r="S26" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -5297,15 +5231,15 @@
         <v>18</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="103">
+      <c r="E27" s="102">
         <v>534.59</v>
       </c>
       <c r="F27" s="34">
@@ -5342,7 +5276,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S27" s="99">
+      <c r="S27" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -5368,10 +5302,10 @@
       <c r="C28" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="103">
+      <c r="E28" s="102">
         <v>534.59</v>
       </c>
       <c r="F28" s="34">
@@ -5408,7 +5342,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S28" s="99">
+      <c r="S28" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -5434,10 +5368,10 @@
       <c r="C29" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="103">
+      <c r="E29" s="102">
         <v>534.59</v>
       </c>
       <c r="F29" s="34">
@@ -5474,7 +5408,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S29" s="99">
+      <c r="S29" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -5500,10 +5434,10 @@
       <c r="C30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="103">
+      <c r="E30" s="102">
         <v>534.59</v>
       </c>
       <c r="F30" s="34">
@@ -5540,7 +5474,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S30" s="99">
+      <c r="S30" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -5561,15 +5495,15 @@
         <v>22</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="97" t="s">
+      <c r="D31" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="103">
+      <c r="E31" s="102">
         <v>534.59</v>
       </c>
       <c r="F31" s="34">
@@ -5606,7 +5540,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S31" s="99">
+      <c r="S31" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -5627,15 +5561,15 @@
         <v>23</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="103">
+      <c r="E32" s="102">
         <v>534.59</v>
       </c>
       <c r="F32" s="34">
@@ -5672,7 +5606,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S32" s="99">
+      <c r="S32" s="98">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -5688,19 +5622,19 @@
       <c r="W32" s="33"/>
     </row>
     <row r="33" spans="1:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="175" t="s">
+      <c r="A33" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="177"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="170"/>
       <c r="L33" s="29">
         <f>SUM(L10:L32)</f>
         <v>128662.7811363636</v>
@@ -5738,8 +5672,8 @@
         <v>119258.23568181813</v>
       </c>
       <c r="U33" s="31"/>
-      <c r="V33" s="105"/>
-      <c r="W33" s="106"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="105"/>
     </row>
     <row r="34" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="171" t="s">
@@ -5748,7 +5682,7 @@
       <c r="B34" s="172"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="98"/>
+      <c r="E34" s="97"/>
       <c r="F34" s="34"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
@@ -5785,7 +5719,7 @@
       <c r="D35" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="98">
+      <c r="E35" s="97">
         <v>534.59</v>
       </c>
       <c r="F35" s="34">
@@ -5822,7 +5756,7 @@
         <f>P35+Q35</f>
         <v>400</v>
       </c>
-      <c r="S35" s="99">
+      <c r="S35" s="98">
         <f t="shared" ref="S35:S98" si="8">R35+O35</f>
         <v>400</v>
       </c>
@@ -5851,7 +5785,7 @@
       <c r="D36" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="98">
+      <c r="E36" s="97">
         <v>534.59</v>
       </c>
       <c r="F36" s="34">
@@ -5888,7 +5822,7 @@
         <f t="shared" ref="R36:R98" si="11">P36+Q36</f>
         <v>400</v>
       </c>
-      <c r="S36" s="99">
+      <c r="S36" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -5917,7 +5851,7 @@
       <c r="D37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="98">
+      <c r="E37" s="97">
         <v>534.59</v>
       </c>
       <c r="F37" s="34">
@@ -5954,7 +5888,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S37" s="99">
+      <c r="S37" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -5983,7 +5917,7 @@
       <c r="D38" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="98">
+      <c r="E38" s="97">
         <v>503.09</v>
       </c>
       <c r="F38" s="34">
@@ -6020,7 +5954,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S38" s="99">
+      <c r="S38" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6049,7 +5983,7 @@
       <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="98">
+      <c r="E39" s="97">
         <v>534.59</v>
       </c>
       <c r="F39" s="34">
@@ -6086,7 +6020,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S39" s="99">
+      <c r="S39" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6115,7 +6049,7 @@
       <c r="D40" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="98">
+      <c r="E40" s="97">
         <v>503.09</v>
       </c>
       <c r="F40" s="34">
@@ -6152,7 +6086,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S40" s="99">
+      <c r="S40" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6171,19 +6105,19 @@
       </c>
     </row>
     <row r="41" spans="1:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="176"/>
-      <c r="K41" s="177"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="169"/>
+      <c r="H41" s="169"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="169"/>
+      <c r="K41" s="170"/>
       <c r="L41" s="29">
         <f>SUM(L35:L40)</f>
         <v>31445.4</v>
@@ -6221,8 +6155,8 @@
         <v>29045.4</v>
       </c>
       <c r="U41" s="31"/>
-      <c r="V41" s="105"/>
-      <c r="W41" s="106"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="105"/>
     </row>
     <row r="42" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="19">
@@ -6230,15 +6164,15 @@
         <v>29</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="98">
+      <c r="E42" s="97">
         <v>534.59</v>
       </c>
       <c r="F42" s="34">
@@ -6275,7 +6209,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S42" s="99">
+      <c r="S42" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6296,15 +6230,15 @@
         <v>30</v>
       </c>
       <c r="B43" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="106" t="s">
         <v>243</v>
-      </c>
-      <c r="C43" s="107" t="s">
-        <v>245</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="98">
+      <c r="E43" s="97">
         <v>566.64</v>
       </c>
       <c r="F43" s="34">
@@ -6341,7 +6275,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S43" s="99">
+      <c r="S43" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6362,15 +6296,15 @@
         <v>31</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="98">
+      <c r="E44" s="97">
         <v>503.09</v>
       </c>
       <c r="F44" s="34">
@@ -6407,7 +6341,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S44" s="99">
+      <c r="S44" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6428,15 +6362,15 @@
         <v>32</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="98">
+      <c r="E45" s="97">
         <v>534.59</v>
       </c>
       <c r="F45" s="34">
@@ -6473,7 +6407,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S45" s="99">
+      <c r="S45" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6497,12 +6431,12 @@
         <v>167</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="98">
+      <c r="E46" s="97">
         <v>534.59</v>
       </c>
       <c r="F46" s="34">
@@ -6539,7 +6473,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S46" s="99">
+      <c r="S46" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6555,19 +6489,19 @@
       <c r="W46" s="33"/>
     </row>
     <row r="47" spans="1:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="175" t="s">
+      <c r="A47" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="176"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="177"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="169"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="169"/>
+      <c r="J47" s="169"/>
+      <c r="K47" s="170"/>
       <c r="L47" s="29">
         <f>SUM(L42:L46)</f>
         <v>26735</v>
@@ -6605,8 +6539,8 @@
         <v>24735</v>
       </c>
       <c r="U47" s="31"/>
-      <c r="V47" s="105"/>
-      <c r="W47" s="106"/>
+      <c r="V47" s="104"/>
+      <c r="W47" s="105"/>
     </row>
     <row r="48" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="19">
@@ -6622,7 +6556,7 @@
       <c r="D48" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="98">
+      <c r="E48" s="97">
         <v>534.59</v>
       </c>
       <c r="F48" s="34">
@@ -6659,7 +6593,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S48" s="99">
+      <c r="S48" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6688,7 +6622,7 @@
       <c r="D49" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="98">
+      <c r="E49" s="97">
         <v>534.59</v>
       </c>
       <c r="F49" s="34">
@@ -6725,7 +6659,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S49" s="99">
+      <c r="S49" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6757,7 +6691,7 @@
       <c r="D50" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="98">
+      <c r="E50" s="97">
         <v>503.09</v>
       </c>
       <c r="F50" s="34">
@@ -6794,7 +6728,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S50" s="99">
+      <c r="S50" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6810,19 +6744,19 @@
       <c r="W50" s="33"/>
     </row>
     <row r="51" spans="1:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="175" t="s">
+      <c r="A51" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="177"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="169"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="170"/>
       <c r="L51" s="29">
         <f>SUM(L48:L50)</f>
         <v>15722.7</v>
@@ -6860,8 +6794,8 @@
         <v>14522.7</v>
       </c>
       <c r="U51" s="31"/>
-      <c r="V51" s="105"/>
-      <c r="W51" s="106"/>
+      <c r="V51" s="104"/>
+      <c r="W51" s="105"/>
     </row>
     <row r="52" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="19">
@@ -6877,7 +6811,7 @@
       <c r="D52" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="98">
+      <c r="E52" s="97">
         <v>566.64</v>
       </c>
       <c r="F52" s="34">
@@ -6914,7 +6848,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S52" s="99">
+      <c r="S52" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -6943,7 +6877,7 @@
       <c r="D53" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="98">
+      <c r="E53" s="97">
         <v>534.59</v>
       </c>
       <c r="F53" s="34">
@@ -6980,7 +6914,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S53" s="99">
+      <c r="S53" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7009,7 +6943,7 @@
       <c r="D54" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="98">
+      <c r="E54" s="97">
         <v>503.09</v>
       </c>
       <c r="F54" s="34">
@@ -7046,7 +6980,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S54" s="99">
+      <c r="S54" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7062,19 +6996,19 @@
       <c r="W54" s="33"/>
     </row>
     <row r="55" spans="1:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="175">
-        <v>10</v>
-      </c>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="176"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="177"/>
+      <c r="A55" s="168">
+        <v>10</v>
+      </c>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="170"/>
       <c r="L55" s="29">
         <f>SUM(L52:L54)</f>
         <v>16043.199999999999</v>
@@ -7112,8 +7046,8 @@
         <v>14843.199999999999</v>
       </c>
       <c r="U55" s="31"/>
-      <c r="V55" s="105"/>
-      <c r="W55" s="106"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="105"/>
     </row>
     <row r="56" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="19">
@@ -7129,7 +7063,7 @@
       <c r="D56" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="98">
+      <c r="E56" s="97">
         <v>566.64</v>
       </c>
       <c r="F56" s="34">
@@ -7166,7 +7100,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S56" s="99">
+      <c r="S56" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7195,7 +7129,7 @@
       <c r="D57" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="98">
+      <c r="E57" s="97">
         <v>503.09</v>
       </c>
       <c r="F57" s="34">
@@ -7232,7 +7166,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S57" s="99">
+      <c r="S57" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7261,7 +7195,7 @@
       <c r="D58" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="98">
+      <c r="E58" s="97">
         <v>534.59</v>
       </c>
       <c r="F58" s="34">
@@ -7298,7 +7232,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S58" s="99">
+      <c r="S58" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7314,19 +7248,19 @@
       <c r="W58" s="33"/>
     </row>
     <row r="59" spans="1:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="175" t="s">
+      <c r="A59" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="176"/>
-      <c r="F59" s="176"/>
-      <c r="G59" s="176"/>
-      <c r="H59" s="176"/>
-      <c r="I59" s="176"/>
-      <c r="J59" s="176"/>
-      <c r="K59" s="177"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="169"/>
+      <c r="H59" s="169"/>
+      <c r="I59" s="169"/>
+      <c r="J59" s="169"/>
+      <c r="K59" s="170"/>
       <c r="L59" s="29">
         <f>SUM(L56:L58)</f>
         <v>16043.2</v>
@@ -7364,8 +7298,8 @@
         <v>14843.2</v>
       </c>
       <c r="U59" s="31"/>
-      <c r="V59" s="105"/>
-      <c r="W59" s="106"/>
+      <c r="V59" s="104"/>
+      <c r="W59" s="105"/>
     </row>
     <row r="60" spans="1:25" ht="19.5" customHeight="1">
       <c r="A60" s="19">
@@ -7381,7 +7315,7 @@
       <c r="D60" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="98">
+      <c r="E60" s="97">
         <v>503.09</v>
       </c>
       <c r="F60" s="34">
@@ -7418,7 +7352,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S60" s="99">
+      <c r="S60" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7450,7 +7384,7 @@
       <c r="D61" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="103">
+      <c r="E61" s="102">
         <v>534.59</v>
       </c>
       <c r="F61" s="34">
@@ -7487,7 +7421,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S61" s="99">
+      <c r="S61" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7516,7 +7450,7 @@
       <c r="D62" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E62" s="98">
+      <c r="E62" s="97">
         <v>450</v>
       </c>
       <c r="F62" s="34">
@@ -7553,7 +7487,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S62" s="99">
+      <c r="S62" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7585,7 +7519,7 @@
       <c r="D63" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="103">
+      <c r="E63" s="102">
         <v>534.59</v>
       </c>
       <c r="F63" s="34">
@@ -7622,7 +7556,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S63" s="99">
+      <c r="S63" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7651,7 +7585,7 @@
       <c r="D64" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="98">
+      <c r="E64" s="97">
         <v>503.09</v>
       </c>
       <c r="F64" s="34">
@@ -7688,7 +7622,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S64" s="99">
+      <c r="S64" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7720,7 +7654,7 @@
       <c r="D65" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="103">
+      <c r="E65" s="102">
         <v>534.59</v>
       </c>
       <c r="F65" s="34">
@@ -7757,7 +7691,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S65" s="99">
+      <c r="S65" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7786,7 +7720,7 @@
       <c r="D66" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="103">
+      <c r="E66" s="102">
         <v>534.59</v>
       </c>
       <c r="F66" s="34">
@@ -7823,7 +7757,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S66" s="99">
+      <c r="S66" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7852,7 +7786,7 @@
       <c r="D67" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E67" s="103">
+      <c r="E67" s="102">
         <v>534.59</v>
       </c>
       <c r="F67" s="34">
@@ -7889,7 +7823,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S67" s="99">
+      <c r="S67" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7918,7 +7852,7 @@
       <c r="D68" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="98">
+      <c r="E68" s="97">
         <v>503.09</v>
       </c>
       <c r="F68" s="34">
@@ -7955,7 +7889,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S68" s="99">
+      <c r="S68" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -7984,7 +7918,7 @@
       <c r="D69" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="103">
+      <c r="E69" s="102">
         <v>534.59</v>
       </c>
       <c r="F69" s="34">
@@ -8021,7 +7955,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S69" s="99">
+      <c r="S69" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8050,7 +7984,7 @@
       <c r="D70" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="103">
+      <c r="E70" s="102">
         <v>534.59</v>
       </c>
       <c r="F70" s="34">
@@ -8087,7 +8021,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S70" s="99">
+      <c r="S70" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8116,7 +8050,7 @@
       <c r="D71" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="98">
+      <c r="E71" s="97">
         <v>503.09</v>
       </c>
       <c r="F71" s="34">
@@ -8153,7 +8087,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S71" s="99">
+      <c r="S71" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8182,7 +8116,7 @@
       <c r="D72" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="103">
+      <c r="E72" s="102">
         <v>534.59</v>
       </c>
       <c r="F72" s="34">
@@ -8219,7 +8153,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S72" s="99">
+      <c r="S72" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8251,7 +8185,7 @@
       <c r="D73" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="98">
+      <c r="E73" s="97">
         <v>566.64</v>
       </c>
       <c r="F73" s="34">
@@ -8288,7 +8222,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S73" s="99">
+      <c r="S73" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8317,7 +8251,7 @@
       <c r="D74" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E74" s="98">
+      <c r="E74" s="97">
         <v>503.09</v>
       </c>
       <c r="F74" s="34">
@@ -8354,7 +8288,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S74" s="99">
+      <c r="S74" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8383,7 +8317,7 @@
       <c r="D75" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E75" s="98">
+      <c r="E75" s="97">
         <v>503.09</v>
       </c>
       <c r="F75" s="34">
@@ -8420,7 +8354,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S75" s="99">
+      <c r="S75" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8452,7 +8386,7 @@
       <c r="D76" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="103">
+      <c r="E76" s="102">
         <v>534.59</v>
       </c>
       <c r="F76" s="34">
@@ -8489,7 +8423,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S76" s="99">
+      <c r="S76" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8518,7 +8452,7 @@
       <c r="D77" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E77" s="103">
+      <c r="E77" s="102">
         <v>534.59</v>
       </c>
       <c r="F77" s="34">
@@ -8555,7 +8489,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S77" s="99">
+      <c r="S77" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8581,10 +8515,10 @@
       <c r="C78" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D78" s="97" t="s">
+      <c r="D78" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="98">
+      <c r="E78" s="97">
         <v>566.64</v>
       </c>
       <c r="F78" s="34">
@@ -8621,7 +8555,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S78" s="99">
+      <c r="S78" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8634,7 +8568,7 @@
         <v>61</v>
       </c>
       <c r="V78" s="32"/>
-      <c r="W78" s="101"/>
+      <c r="W78" s="100"/>
       <c r="Y78" s="1" t="s">
         <v>65</v>
       </c>
@@ -8653,7 +8587,7 @@
       <c r="D79" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="103">
+      <c r="E79" s="102">
         <v>534.59</v>
       </c>
       <c r="F79" s="34">
@@ -8690,7 +8624,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S79" s="99">
+      <c r="S79" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8719,7 +8653,7 @@
       <c r="D80" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E80" s="98">
+      <c r="E80" s="97">
         <v>503.09</v>
       </c>
       <c r="F80" s="34">
@@ -8756,7 +8690,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S80" s="99">
+      <c r="S80" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8785,7 +8719,7 @@
       <c r="D81" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="98">
+      <c r="E81" s="97">
         <v>503.09</v>
       </c>
       <c r="F81" s="34">
@@ -8822,7 +8756,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S81" s="99">
+      <c r="S81" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8854,7 +8788,7 @@
       <c r="D82" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E82" s="98">
+      <c r="E82" s="97">
         <v>503.09</v>
       </c>
       <c r="F82" s="34">
@@ -8891,7 +8825,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S82" s="99">
+      <c r="S82" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8920,7 +8854,7 @@
       <c r="D83" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="98">
+      <c r="E83" s="97">
         <v>534.59</v>
       </c>
       <c r="F83" s="34">
@@ -8957,7 +8891,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S83" s="99">
+      <c r="S83" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -8989,7 +8923,7 @@
       <c r="D84" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E84" s="103">
+      <c r="E84" s="102">
         <v>534.59</v>
       </c>
       <c r="F84" s="34">
@@ -9026,7 +8960,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S84" s="99">
+      <c r="S84" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9042,19 +8976,19 @@
       <c r="W84" s="33"/>
     </row>
     <row r="85" spans="1:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="176"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="176"/>
-      <c r="E85" s="176"/>
-      <c r="F85" s="176"/>
-      <c r="G85" s="176"/>
-      <c r="H85" s="176"/>
-      <c r="I85" s="176"/>
-      <c r="J85" s="176"/>
-      <c r="K85" s="177"/>
+      <c r="B85" s="169"/>
+      <c r="C85" s="169"/>
+      <c r="D85" s="169"/>
+      <c r="E85" s="169"/>
+      <c r="F85" s="169"/>
+      <c r="G85" s="169"/>
+      <c r="H85" s="169"/>
+      <c r="I85" s="169"/>
+      <c r="J85" s="169"/>
+      <c r="K85" s="170"/>
       <c r="L85" s="29">
         <f>SUM(L60:L84)</f>
         <v>130607.59999999993</v>
@@ -9092,8 +9026,8 @@
         <v>120607.59999999995</v>
       </c>
       <c r="U85" s="31"/>
-      <c r="V85" s="105"/>
-      <c r="W85" s="106"/>
+      <c r="V85" s="104"/>
+      <c r="W85" s="105"/>
     </row>
     <row r="86" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="19">
@@ -9109,7 +9043,7 @@
       <c r="D86" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E86" s="98">
+      <c r="E86" s="97">
         <v>534.59</v>
       </c>
       <c r="F86" s="34">
@@ -9146,7 +9080,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S86" s="99">
+      <c r="S86" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9175,7 +9109,7 @@
       <c r="D87" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E87" s="98">
+      <c r="E87" s="97">
         <v>566.64</v>
       </c>
       <c r="F87" s="34">
@@ -9212,7 +9146,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S87" s="99">
+      <c r="S87" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9241,7 +9175,7 @@
       <c r="D88" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E88" s="98">
+      <c r="E88" s="97">
         <v>534.59</v>
       </c>
       <c r="F88" s="34">
@@ -9278,7 +9212,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S88" s="99">
+      <c r="S88" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9307,7 +9241,7 @@
       <c r="D89" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E89" s="98">
+      <c r="E89" s="97">
         <v>534.59</v>
       </c>
       <c r="F89" s="34">
@@ -9344,7 +9278,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S89" s="99">
+      <c r="S89" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9368,12 +9302,12 @@
         <v>159</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E90" s="98">
+      <c r="E90" s="97">
         <v>503.09</v>
       </c>
       <c r="F90" s="34">
@@ -9410,7 +9344,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S90" s="99">
+      <c r="S90" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9426,19 +9360,19 @@
       <c r="W90" s="33"/>
     </row>
     <row r="91" spans="1:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="175" t="s">
+      <c r="A91" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="176"/>
-      <c r="C91" s="176"/>
-      <c r="D91" s="176"/>
-      <c r="E91" s="176"/>
-      <c r="F91" s="176"/>
-      <c r="G91" s="176"/>
-      <c r="H91" s="176"/>
-      <c r="I91" s="176"/>
-      <c r="J91" s="176"/>
-      <c r="K91" s="177"/>
+      <c r="B91" s="169"/>
+      <c r="C91" s="169"/>
+      <c r="D91" s="169"/>
+      <c r="E91" s="169"/>
+      <c r="F91" s="169"/>
+      <c r="G91" s="169"/>
+      <c r="H91" s="169"/>
+      <c r="I91" s="169"/>
+      <c r="J91" s="169"/>
+      <c r="K91" s="170"/>
       <c r="L91" s="29">
         <f>SUM(L86:L90)</f>
         <v>26735</v>
@@ -9476,8 +9410,8 @@
         <v>24735</v>
       </c>
       <c r="U91" s="31"/>
-      <c r="V91" s="105"/>
-      <c r="W91" s="106"/>
+      <c r="V91" s="104"/>
+      <c r="W91" s="105"/>
     </row>
     <row r="92" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="19">
@@ -9490,10 +9424,10 @@
       <c r="C92" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="108" t="s">
+      <c r="D92" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="E92" s="98">
+      <c r="E92" s="97">
         <v>800</v>
       </c>
       <c r="F92" s="34">
@@ -9530,7 +9464,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S92" s="99">
+      <c r="S92" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9562,7 +9496,7 @@
       <c r="D93" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E93" s="98">
+      <c r="E93" s="97">
         <v>534.59</v>
       </c>
       <c r="F93" s="34">
@@ -9599,7 +9533,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S93" s="99">
+      <c r="S93" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9628,7 +9562,7 @@
       <c r="D94" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E94" s="98">
+      <c r="E94" s="97">
         <v>534.59</v>
       </c>
       <c r="F94" s="34">
@@ -9665,7 +9599,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S94" s="99">
+      <c r="S94" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9681,19 +9615,19 @@
       <c r="W94" s="33"/>
     </row>
     <row r="95" spans="1:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="175" t="s">
+      <c r="A95" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="176"/>
-      <c r="C95" s="176"/>
-      <c r="D95" s="176"/>
-      <c r="E95" s="176"/>
-      <c r="F95" s="176"/>
-      <c r="G95" s="176"/>
-      <c r="H95" s="176"/>
-      <c r="I95" s="176"/>
-      <c r="J95" s="176"/>
-      <c r="K95" s="177"/>
+      <c r="B95" s="169"/>
+      <c r="C95" s="169"/>
+      <c r="D95" s="169"/>
+      <c r="E95" s="169"/>
+      <c r="F95" s="169"/>
+      <c r="G95" s="169"/>
+      <c r="H95" s="169"/>
+      <c r="I95" s="169"/>
+      <c r="J95" s="169"/>
+      <c r="K95" s="170"/>
       <c r="L95" s="29">
         <f>SUM(L92:L94)</f>
         <v>18691.800000000003</v>
@@ -9731,8 +9665,8 @@
         <v>17491.800000000003</v>
       </c>
       <c r="U95" s="31"/>
-      <c r="V95" s="105"/>
-      <c r="W95" s="106"/>
+      <c r="V95" s="104"/>
+      <c r="W95" s="105"/>
     </row>
     <row r="96" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="19">
@@ -9748,7 +9682,7 @@
       <c r="D96" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E96" s="98">
+      <c r="E96" s="97">
         <f>24495/22</f>
         <v>1113.409090909091</v>
       </c>
@@ -9790,7 +9724,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S96" s="99">
+      <c r="S96" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9819,7 +9753,7 @@
       <c r="D97" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E97" s="98">
+      <c r="E97" s="97">
         <v>534.59</v>
       </c>
       <c r="F97" s="34">
@@ -9856,7 +9790,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S97" s="99">
+      <c r="S97" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9885,7 +9819,7 @@
       <c r="D98" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="98">
+      <c r="E98" s="97">
         <v>534.59</v>
       </c>
       <c r="F98" s="34">
@@ -9922,7 +9856,7 @@
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="S98" s="99">
+      <c r="S98" s="98">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
@@ -9951,7 +9885,7 @@
       <c r="D99" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E99" s="98">
+      <c r="E99" s="97">
         <v>534.59</v>
       </c>
       <c r="F99" s="34">
@@ -9988,7 +9922,7 @@
         <f t="shared" ref="R99:R122" si="29">P99+Q99</f>
         <v>400</v>
       </c>
-      <c r="S99" s="99">
+      <c r="S99" s="98">
         <f t="shared" ref="S99:S122" si="30">R99+O99</f>
         <v>400</v>
       </c>
@@ -10017,7 +9951,7 @@
       <c r="D100" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E100" s="98">
+      <c r="E100" s="97">
         <v>534.59</v>
       </c>
       <c r="F100" s="34">
@@ -10054,7 +9988,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S100" s="99">
+      <c r="S100" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10083,7 +10017,7 @@
       <c r="D101" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E101" s="98">
+      <c r="E101" s="97">
         <v>503.59</v>
       </c>
       <c r="F101" s="34">
@@ -10120,7 +10054,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S101" s="99">
+      <c r="S101" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10149,7 +10083,7 @@
       <c r="D102" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E102" s="98">
+      <c r="E102" s="97">
         <v>534.59</v>
       </c>
       <c r="F102" s="34">
@@ -10186,7 +10120,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S102" s="99">
+      <c r="S102" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10215,7 +10149,7 @@
       <c r="D103" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E103" s="98">
+      <c r="E103" s="97">
         <v>450</v>
       </c>
       <c r="F103" s="34">
@@ -10252,7 +10186,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S103" s="99">
+      <c r="S103" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10281,7 +10215,7 @@
       <c r="D104" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E104" s="98">
+      <c r="E104" s="97">
         <f>24495/22</f>
         <v>1113.409090909091</v>
       </c>
@@ -10311,11 +10245,11 @@
         <f>L104*0.03</f>
         <v>332.90931818181821</v>
       </c>
-      <c r="N104" s="109">
+      <c r="N104" s="108">
         <f>L104*0.1</f>
         <v>1109.6977272727274</v>
       </c>
-      <c r="O104" s="109">
+      <c r="O104" s="108">
         <f t="shared" si="21"/>
         <v>1442.6070454545456</v>
       </c>
@@ -10329,7 +10263,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S104" s="99">
+      <c r="S104" s="98">
         <f t="shared" si="30"/>
         <v>1842.6070454545456</v>
       </c>
@@ -10345,19 +10279,19 @@
       <c r="W104" s="33"/>
     </row>
     <row r="105" spans="1:23" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="175" t="s">
+      <c r="A105" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="176"/>
-      <c r="C105" s="176"/>
-      <c r="D105" s="176"/>
-      <c r="E105" s="176"/>
-      <c r="F105" s="176"/>
-      <c r="G105" s="176"/>
-      <c r="H105" s="176"/>
-      <c r="I105" s="176"/>
-      <c r="J105" s="176"/>
-      <c r="K105" s="177"/>
+      <c r="B105" s="169"/>
+      <c r="C105" s="169"/>
+      <c r="D105" s="169"/>
+      <c r="E105" s="169"/>
+      <c r="F105" s="169"/>
+      <c r="G105" s="169"/>
+      <c r="H105" s="169"/>
+      <c r="I105" s="169"/>
+      <c r="J105" s="169"/>
+      <c r="K105" s="170"/>
       <c r="L105" s="29">
         <f t="shared" ref="L105:T105" si="31">SUM(L96:L104)</f>
         <v>56232.536363636369</v>
@@ -10395,8 +10329,8 @@
         <v>51189.929318181821</v>
       </c>
       <c r="U105" s="31"/>
-      <c r="V105" s="105"/>
-      <c r="W105" s="106"/>
+      <c r="V105" s="104"/>
+      <c r="W105" s="105"/>
     </row>
     <row r="106" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="19">
@@ -10412,7 +10346,7 @@
       <c r="D106" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E106" s="98">
+      <c r="E106" s="97">
         <v>566.64</v>
       </c>
       <c r="F106" s="34">
@@ -10449,7 +10383,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S106" s="99">
+      <c r="S106" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10478,7 +10412,7 @@
       <c r="D107" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="98">
+      <c r="E107" s="97">
         <v>534.59</v>
       </c>
       <c r="F107" s="34">
@@ -10515,7 +10449,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S107" s="99">
+      <c r="S107" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10544,7 +10478,7 @@
       <c r="D108" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="98">
+      <c r="E108" s="97">
         <v>534.59</v>
       </c>
       <c r="F108" s="34">
@@ -10581,7 +10515,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S108" s="99">
+      <c r="S108" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10610,7 +10544,7 @@
       <c r="D109" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E109" s="98">
+      <c r="E109" s="97">
         <v>534.59</v>
       </c>
       <c r="F109" s="34">
@@ -10647,7 +10581,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S109" s="99">
+      <c r="S109" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10676,7 +10610,7 @@
       <c r="D110" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E110" s="98">
+      <c r="E110" s="97">
         <v>534.59</v>
       </c>
       <c r="F110" s="34">
@@ -10713,7 +10647,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S110" s="99">
+      <c r="S110" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10726,7 +10660,7 @@
         <v>89</v>
       </c>
       <c r="V110" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="W110" s="33"/>
     </row>
@@ -10744,7 +10678,7 @@
       <c r="D111" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E111" s="98">
+      <c r="E111" s="97">
         <v>534.59</v>
       </c>
       <c r="F111" s="34">
@@ -10781,7 +10715,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S111" s="99">
+      <c r="S111" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10794,7 +10728,7 @@
         <v>90</v>
       </c>
       <c r="V111" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="W111" s="33"/>
     </row>
@@ -10812,7 +10746,7 @@
       <c r="D112" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E112" s="98">
+      <c r="E112" s="97">
         <v>566.64</v>
       </c>
       <c r="F112" s="34">
@@ -10849,7 +10783,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S112" s="99">
+      <c r="S112" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10878,7 +10812,7 @@
       <c r="D113" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E113" s="98">
+      <c r="E113" s="97">
         <v>566.64</v>
       </c>
       <c r="F113" s="34">
@@ -10915,7 +10849,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S113" s="99">
+      <c r="S113" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -10944,7 +10878,7 @@
       <c r="D114" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E114" s="98">
+      <c r="E114" s="97">
         <v>534.59</v>
       </c>
       <c r="F114" s="34">
@@ -10981,7 +10915,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S114" s="99">
+      <c r="S114" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -11010,7 +10944,7 @@
       <c r="D115" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E115" s="98">
+      <c r="E115" s="97">
         <v>534.59</v>
       </c>
       <c r="F115" s="34">
@@ -11047,7 +10981,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S115" s="99">
+      <c r="S115" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -11063,19 +10997,19 @@
       <c r="W115" s="33"/>
     </row>
     <row r="116" spans="1:23" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="175">
-        <v>10</v>
-      </c>
-      <c r="B116" s="176"/>
-      <c r="C116" s="176"/>
-      <c r="D116" s="176"/>
-      <c r="E116" s="176"/>
-      <c r="F116" s="176"/>
-      <c r="G116" s="176"/>
-      <c r="H116" s="176"/>
-      <c r="I116" s="176"/>
-      <c r="J116" s="176"/>
-      <c r="K116" s="177"/>
+      <c r="A116" s="168">
+        <v>10</v>
+      </c>
+      <c r="B116" s="169"/>
+      <c r="C116" s="169"/>
+      <c r="D116" s="169"/>
+      <c r="E116" s="169"/>
+      <c r="F116" s="169"/>
+      <c r="G116" s="169"/>
+      <c r="H116" s="169"/>
+      <c r="I116" s="169"/>
+      <c r="J116" s="169"/>
+      <c r="K116" s="170"/>
       <c r="L116" s="29">
         <f>SUM(L106:L115)</f>
         <v>54420.500000000007</v>
@@ -11113,8 +11047,8 @@
         <v>50420.500000000007</v>
       </c>
       <c r="U116" s="31"/>
-      <c r="V116" s="105"/>
-      <c r="W116" s="106"/>
+      <c r="V116" s="104"/>
+      <c r="W116" s="105"/>
     </row>
     <row r="117" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="19">
@@ -11130,7 +11064,7 @@
       <c r="D117" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E117" s="98">
+      <c r="E117" s="97">
         <v>534.59</v>
       </c>
       <c r="F117" s="34">
@@ -11167,7 +11101,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S117" s="99">
+      <c r="S117" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -11196,7 +11130,7 @@
       <c r="D118" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E118" s="98">
+      <c r="E118" s="97">
         <v>534.59</v>
       </c>
       <c r="F118" s="34">
@@ -11233,7 +11167,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S118" s="99">
+      <c r="S118" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -11262,7 +11196,7 @@
       <c r="D119" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E119" s="98">
+      <c r="E119" s="97">
         <v>534.59</v>
       </c>
       <c r="F119" s="34">
@@ -11299,7 +11233,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S119" s="99">
+      <c r="S119" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -11323,12 +11257,12 @@
         <v>190</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D120" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E120" s="98">
+      <c r="E120" s="97">
         <v>534.59</v>
       </c>
       <c r="F120" s="34">
@@ -11365,7 +11299,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S120" s="99">
+      <c r="S120" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -11394,7 +11328,7 @@
       <c r="D121" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E121" s="98">
+      <c r="E121" s="97">
         <v>566.64</v>
       </c>
       <c r="F121" s="34">
@@ -11431,7 +11365,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S121" s="99">
+      <c r="S121" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -11460,7 +11394,7 @@
       <c r="D122" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E122" s="98">
+      <c r="E122" s="97">
         <v>534.59</v>
       </c>
       <c r="F122" s="34">
@@ -11497,7 +11431,7 @@
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
-      <c r="S122" s="99">
+      <c r="S122" s="98">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -11513,19 +11447,19 @@
       <c r="W122" s="33"/>
     </row>
     <row r="123" spans="1:23" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="175" t="s">
+      <c r="A123" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B123" s="176"/>
-      <c r="C123" s="176"/>
-      <c r="D123" s="176"/>
-      <c r="E123" s="176"/>
-      <c r="F123" s="176"/>
-      <c r="G123" s="176"/>
-      <c r="H123" s="176"/>
-      <c r="I123" s="176"/>
-      <c r="J123" s="176"/>
-      <c r="K123" s="177"/>
+      <c r="B123" s="169"/>
+      <c r="C123" s="169"/>
+      <c r="D123" s="169"/>
+      <c r="E123" s="169"/>
+      <c r="F123" s="169"/>
+      <c r="G123" s="169"/>
+      <c r="H123" s="169"/>
+      <c r="I123" s="169"/>
+      <c r="J123" s="169"/>
+      <c r="K123" s="170"/>
       <c r="L123" s="29">
         <f t="shared" ref="L123:T123" si="38">SUM(L117:L122)</f>
         <v>32395.9</v>
@@ -11563,17 +11497,17 @@
         <v>29995.9</v>
       </c>
       <c r="U123" s="31"/>
-      <c r="V123" s="105"/>
-      <c r="W123" s="106"/>
+      <c r="V123" s="104"/>
+      <c r="W123" s="105"/>
     </row>
     <row r="124" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="178" t="s">
+      <c r="A124" s="177" t="s">
         <v>196</v>
       </c>
-      <c r="B124" s="179"/>
-      <c r="C124" s="180"/>
+      <c r="B124" s="178"/>
+      <c r="C124" s="179"/>
       <c r="D124" s="22"/>
-      <c r="E124" s="98"/>
+      <c r="E124" s="97"/>
       <c r="F124" s="34"/>
       <c r="G124" s="24"/>
       <c r="H124" s="25"/>
@@ -11607,7 +11541,7 @@
       <c r="D125" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="110">
+      <c r="E125" s="109">
         <v>566.64</v>
       </c>
       <c r="F125" s="25">
@@ -11644,7 +11578,7 @@
         <f t="shared" ref="R125:R132" si="41">P125+Q125</f>
         <v>400</v>
       </c>
-      <c r="S125" s="99">
+      <c r="S125" s="98">
         <f t="shared" ref="S125:S132" si="42">R125+O125</f>
         <v>400</v>
       </c>
@@ -11673,7 +11607,7 @@
       <c r="D126" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E126" s="110">
+      <c r="E126" s="109">
         <v>534.59</v>
       </c>
       <c r="F126" s="25">
@@ -11710,7 +11644,7 @@
         <f t="shared" si="41"/>
         <v>400</v>
       </c>
-      <c r="S126" s="99">
+      <c r="S126" s="98">
         <f t="shared" si="42"/>
         <v>400</v>
       </c>
@@ -11722,8 +11656,8 @@
         <f t="shared" si="44"/>
         <v>102</v>
       </c>
-      <c r="V126" s="111"/>
-      <c r="W126" s="112"/>
+      <c r="V126" s="110"/>
+      <c r="W126" s="111"/>
     </row>
     <row r="127" spans="1:23" ht="18.75" customHeight="1">
       <c r="A127" s="22">
@@ -11739,7 +11673,7 @@
       <c r="D127" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E127" s="110">
+      <c r="E127" s="109">
         <v>534.59</v>
       </c>
       <c r="F127" s="25">
@@ -11776,7 +11710,7 @@
         <f t="shared" si="41"/>
         <v>400</v>
       </c>
-      <c r="S127" s="99">
+      <c r="S127" s="98">
         <f t="shared" si="42"/>
         <v>400</v>
       </c>
@@ -11788,8 +11722,8 @@
         <f t="shared" si="44"/>
         <v>103</v>
       </c>
-      <c r="V127" s="111"/>
-      <c r="W127" s="112"/>
+      <c r="V127" s="110"/>
+      <c r="W127" s="111"/>
     </row>
     <row r="128" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="22">
@@ -11805,7 +11739,7 @@
       <c r="D128" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E128" s="110">
+      <c r="E128" s="109">
         <v>534.59</v>
       </c>
       <c r="F128" s="25">
@@ -11842,7 +11776,7 @@
         <f t="shared" si="41"/>
         <v>400</v>
       </c>
-      <c r="S128" s="99">
+      <c r="S128" s="98">
         <f t="shared" si="42"/>
         <v>400</v>
       </c>
@@ -11854,8 +11788,8 @@
         <f t="shared" si="44"/>
         <v>104</v>
       </c>
-      <c r="V128" s="111"/>
-      <c r="W128" s="112"/>
+      <c r="V128" s="110"/>
+      <c r="W128" s="111"/>
     </row>
     <row r="129" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="22">
@@ -11871,7 +11805,7 @@
       <c r="D129" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E129" s="110">
+      <c r="E129" s="109">
         <v>534.59</v>
       </c>
       <c r="F129" s="25">
@@ -11908,7 +11842,7 @@
         <f t="shared" si="41"/>
         <v>400</v>
       </c>
-      <c r="S129" s="99">
+      <c r="S129" s="98">
         <f t="shared" si="42"/>
         <v>400</v>
       </c>
@@ -11920,8 +11854,8 @@
         <f t="shared" si="44"/>
         <v>105</v>
       </c>
-      <c r="V129" s="111"/>
-      <c r="W129" s="112"/>
+      <c r="V129" s="110"/>
+      <c r="W129" s="111"/>
     </row>
     <row r="130" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="22">
@@ -11937,7 +11871,7 @@
       <c r="D130" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E130" s="110">
+      <c r="E130" s="109">
         <v>534.59</v>
       </c>
       <c r="F130" s="25">
@@ -11974,7 +11908,7 @@
         <f t="shared" si="41"/>
         <v>400</v>
       </c>
-      <c r="S130" s="99">
+      <c r="S130" s="98">
         <f t="shared" si="42"/>
         <v>400</v>
       </c>
@@ -11986,8 +11920,8 @@
         <f t="shared" si="44"/>
         <v>106</v>
       </c>
-      <c r="V130" s="111"/>
-      <c r="W130" s="112"/>
+      <c r="V130" s="110"/>
+      <c r="W130" s="111"/>
     </row>
     <row r="131" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="22">
@@ -12003,7 +11937,7 @@
       <c r="D131" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E131" s="110">
+      <c r="E131" s="109">
         <v>566.64</v>
       </c>
       <c r="F131" s="25">
@@ -12040,7 +11974,7 @@
         <f t="shared" si="41"/>
         <v>400</v>
       </c>
-      <c r="S131" s="99">
+      <c r="S131" s="98">
         <f t="shared" si="42"/>
         <v>400</v>
       </c>
@@ -12052,8 +11986,8 @@
         <f t="shared" si="44"/>
         <v>107</v>
       </c>
-      <c r="V131" s="111"/>
-      <c r="W131" s="112"/>
+      <c r="V131" s="110"/>
+      <c r="W131" s="111"/>
     </row>
     <row r="132" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="22">
@@ -12069,7 +12003,7 @@
       <c r="D132" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E132" s="110">
+      <c r="E132" s="109">
         <v>534.59</v>
       </c>
       <c r="F132" s="25">
@@ -12106,7 +12040,7 @@
         <f t="shared" si="41"/>
         <v>400</v>
       </c>
-      <c r="S132" s="99">
+      <c r="S132" s="98">
         <f t="shared" si="42"/>
         <v>400</v>
       </c>
@@ -12118,23 +12052,23 @@
         <f t="shared" si="44"/>
         <v>108</v>
       </c>
-      <c r="V132" s="111"/>
-      <c r="W132" s="112"/>
+      <c r="V132" s="110"/>
+      <c r="W132" s="111"/>
     </row>
     <row r="133" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="175" t="s">
+      <c r="A133" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B133" s="176"/>
-      <c r="C133" s="176"/>
-      <c r="D133" s="176"/>
-      <c r="E133" s="176"/>
-      <c r="F133" s="176"/>
-      <c r="G133" s="176"/>
-      <c r="H133" s="176"/>
-      <c r="I133" s="176"/>
-      <c r="J133" s="176"/>
-      <c r="K133" s="177"/>
+      <c r="B133" s="169"/>
+      <c r="C133" s="169"/>
+      <c r="D133" s="169"/>
+      <c r="E133" s="169"/>
+      <c r="F133" s="169"/>
+      <c r="G133" s="169"/>
+      <c r="H133" s="169"/>
+      <c r="I133" s="169"/>
+      <c r="J133" s="169"/>
+      <c r="K133" s="170"/>
       <c r="L133" s="29">
         <f>SUM(L125:L132)</f>
         <v>43408.200000000004</v>
@@ -12172,17 +12106,17 @@
         <v>40208.200000000004</v>
       </c>
       <c r="U133" s="31"/>
-      <c r="V133" s="111"/>
-      <c r="W133" s="112"/>
+      <c r="V133" s="110"/>
+      <c r="W133" s="111"/>
     </row>
     <row r="134" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="175" t="s">
+      <c r="A134" s="168" t="s">
         <v>207</v>
       </c>
-      <c r="B134" s="177"/>
+      <c r="B134" s="170"/>
       <c r="C134" s="21"/>
       <c r="D134" s="22"/>
-      <c r="E134" s="110"/>
+      <c r="E134" s="109"/>
       <c r="F134" s="25"/>
       <c r="G134" s="24"/>
       <c r="H134" s="25"/>
@@ -12199,24 +12133,24 @@
       <c r="S134" s="29"/>
       <c r="T134" s="30"/>
       <c r="U134" s="31"/>
-      <c r="V134" s="111"/>
-      <c r="W134" s="112"/>
+      <c r="V134" s="110"/>
+      <c r="W134" s="111"/>
     </row>
     <row r="135" spans="1:23" ht="21.75" customHeight="1">
       <c r="A135" s="22">
         <f>A132+1</f>
         <v>109</v>
       </c>
-      <c r="B135" s="113" t="s">
+      <c r="B135" s="112" t="s">
         <v>208</v>
       </c>
       <c r="C135" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D135" s="114" t="s">
+      <c r="D135" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="E135" s="115">
+      <c r="E135" s="114">
         <f>22316/21</f>
         <v>1062.6666666666667</v>
       </c>
@@ -12254,7 +12188,7 @@
         <f t="shared" ref="R135:R145" si="48">P135+Q135</f>
         <v>400</v>
       </c>
-      <c r="S135" s="99">
+      <c r="S135" s="98">
         <f t="shared" ref="S135:S145" si="49">R135+O135</f>
         <v>400</v>
       </c>
@@ -12266,15 +12200,15 @@
         <f t="shared" si="44"/>
         <v>109</v>
       </c>
-      <c r="V135" s="111"/>
-      <c r="W135" s="112"/>
+      <c r="V135" s="110"/>
+      <c r="W135" s="111"/>
     </row>
     <row r="136" spans="1:23" ht="21.75" customHeight="1">
       <c r="A136" s="22">
         <f>A135+1</f>
         <v>110</v>
       </c>
-      <c r="B136" s="113" t="s">
+      <c r="B136" s="112" t="s">
         <v>211</v>
       </c>
       <c r="C136" s="21" t="s">
@@ -12320,7 +12254,7 @@
         <f t="shared" si="48"/>
         <v>400</v>
       </c>
-      <c r="S136" s="99">
+      <c r="S136" s="98">
         <f t="shared" si="49"/>
         <v>400</v>
       </c>
@@ -12332,8 +12266,8 @@
         <f t="shared" si="44"/>
         <v>110</v>
       </c>
-      <c r="V136" s="111"/>
-      <c r="W136" s="112"/>
+      <c r="V136" s="110"/>
+      <c r="W136" s="111"/>
     </row>
     <row r="137" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="22">
@@ -12349,7 +12283,7 @@
       <c r="D137" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E137" s="110">
+      <c r="E137" s="109">
         <v>534.59</v>
       </c>
       <c r="F137" s="25">
@@ -12386,7 +12320,7 @@
         <f t="shared" si="48"/>
         <v>400</v>
       </c>
-      <c r="S137" s="99">
+      <c r="S137" s="98">
         <f t="shared" si="49"/>
         <v>400</v>
       </c>
@@ -12398,8 +12332,8 @@
         <f t="shared" si="44"/>
         <v>111</v>
       </c>
-      <c r="V137" s="111"/>
-      <c r="W137" s="112"/>
+      <c r="V137" s="110"/>
+      <c r="W137" s="111"/>
     </row>
     <row r="138" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="22">
@@ -12415,7 +12349,7 @@
       <c r="D138" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E138" s="110">
+      <c r="E138" s="109">
         <v>534.59</v>
       </c>
       <c r="F138" s="25">
@@ -12452,7 +12386,7 @@
         <f t="shared" si="48"/>
         <v>400</v>
       </c>
-      <c r="S138" s="99">
+      <c r="S138" s="98">
         <f t="shared" si="49"/>
         <v>400</v>
       </c>
@@ -12464,8 +12398,8 @@
         <f t="shared" si="44"/>
         <v>112</v>
       </c>
-      <c r="V138" s="111"/>
-      <c r="W138" s="112"/>
+      <c r="V138" s="110"/>
+      <c r="W138" s="111"/>
     </row>
     <row r="139" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="22">
@@ -12481,7 +12415,7 @@
       <c r="D139" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E139" s="110">
+      <c r="E139" s="109">
         <v>503.09</v>
       </c>
       <c r="F139" s="25">
@@ -12518,7 +12452,7 @@
         <f t="shared" si="48"/>
         <v>400</v>
       </c>
-      <c r="S139" s="99">
+      <c r="S139" s="98">
         <f t="shared" si="49"/>
         <v>400</v>
       </c>
@@ -12530,8 +12464,8 @@
         <f t="shared" si="44"/>
         <v>113</v>
       </c>
-      <c r="V139" s="111"/>
-      <c r="W139" s="112"/>
+      <c r="V139" s="110"/>
+      <c r="W139" s="111"/>
     </row>
     <row r="140" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="22">
@@ -12547,7 +12481,7 @@
       <c r="D140" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E140" s="110">
+      <c r="E140" s="109">
         <v>503.09</v>
       </c>
       <c r="F140" s="25">
@@ -12584,7 +12518,7 @@
         <f t="shared" si="48"/>
         <v>400</v>
       </c>
-      <c r="S140" s="99">
+      <c r="S140" s="98">
         <f t="shared" si="49"/>
         <v>400</v>
       </c>
@@ -12596,8 +12530,8 @@
         <f t="shared" si="44"/>
         <v>114</v>
       </c>
-      <c r="V140" s="111"/>
-      <c r="W140" s="112"/>
+      <c r="V140" s="110"/>
+      <c r="W140" s="111"/>
     </row>
     <row r="141" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="22">
@@ -12613,7 +12547,7 @@
       <c r="D141" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E141" s="110">
+      <c r="E141" s="109">
         <v>534.59</v>
       </c>
       <c r="F141" s="25">
@@ -12650,7 +12584,7 @@
         <f t="shared" si="48"/>
         <v>400</v>
       </c>
-      <c r="S141" s="99">
+      <c r="S141" s="98">
         <f t="shared" si="49"/>
         <v>400</v>
       </c>
@@ -12662,8 +12596,8 @@
         <f t="shared" si="44"/>
         <v>115</v>
       </c>
-      <c r="V141" s="111"/>
-      <c r="W141" s="112"/>
+      <c r="V141" s="110"/>
+      <c r="W141" s="111"/>
     </row>
     <row r="142" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="22">
@@ -12679,7 +12613,7 @@
       <c r="D142" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E142" s="110">
+      <c r="E142" s="109">
         <v>534.59</v>
       </c>
       <c r="F142" s="25">
@@ -12716,7 +12650,7 @@
         <f t="shared" si="48"/>
         <v>400</v>
       </c>
-      <c r="S142" s="99">
+      <c r="S142" s="98">
         <f t="shared" si="49"/>
         <v>400</v>
       </c>
@@ -12728,8 +12662,8 @@
         <f t="shared" si="44"/>
         <v>116</v>
       </c>
-      <c r="V142" s="111"/>
-      <c r="W142" s="112"/>
+      <c r="V142" s="110"/>
+      <c r="W142" s="111"/>
     </row>
     <row r="143" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="22">
@@ -12745,7 +12679,7 @@
       <c r="D143" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E143" s="110">
+      <c r="E143" s="109">
         <v>534.59</v>
       </c>
       <c r="F143" s="25">
@@ -12782,7 +12716,7 @@
         <f t="shared" si="48"/>
         <v>400</v>
       </c>
-      <c r="S143" s="99">
+      <c r="S143" s="98">
         <f t="shared" si="49"/>
         <v>400</v>
       </c>
@@ -12794,8 +12728,8 @@
         <f t="shared" si="44"/>
         <v>117</v>
       </c>
-      <c r="V143" s="111"/>
-      <c r="W143" s="112"/>
+      <c r="V143" s="110"/>
+      <c r="W143" s="111"/>
     </row>
     <row r="144" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="22">
@@ -12811,7 +12745,7 @@
       <c r="D144" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E144" s="110">
+      <c r="E144" s="109">
         <v>534.59</v>
       </c>
       <c r="F144" s="25">
@@ -12848,7 +12782,7 @@
         <f t="shared" si="48"/>
         <v>400</v>
       </c>
-      <c r="S144" s="99">
+      <c r="S144" s="98">
         <f t="shared" si="49"/>
         <v>400</v>
       </c>
@@ -12860,8 +12794,8 @@
         <f t="shared" si="44"/>
         <v>118</v>
       </c>
-      <c r="V144" s="111"/>
-      <c r="W144" s="112"/>
+      <c r="V144" s="110"/>
+      <c r="W144" s="111"/>
     </row>
     <row r="145" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="22">
@@ -12877,7 +12811,7 @@
       <c r="D145" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E145" s="110">
+      <c r="E145" s="109">
         <v>534.59</v>
       </c>
       <c r="F145" s="25">
@@ -12914,7 +12848,7 @@
         <f t="shared" si="48"/>
         <v>400</v>
       </c>
-      <c r="S145" s="99">
+      <c r="S145" s="98">
         <f t="shared" si="49"/>
         <v>400</v>
       </c>
@@ -12926,23 +12860,23 @@
         <f t="shared" si="44"/>
         <v>119</v>
       </c>
-      <c r="V145" s="111"/>
-      <c r="W145" s="112"/>
+      <c r="V145" s="110"/>
+      <c r="W145" s="111"/>
     </row>
     <row r="146" spans="1:23" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="175" t="s">
+      <c r="A146" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B146" s="176"/>
-      <c r="C146" s="176"/>
-      <c r="D146" s="176"/>
-      <c r="E146" s="176"/>
-      <c r="F146" s="176"/>
-      <c r="G146" s="176"/>
-      <c r="H146" s="176"/>
-      <c r="I146" s="176"/>
-      <c r="J146" s="176"/>
-      <c r="K146" s="177"/>
+      <c r="B146" s="169"/>
+      <c r="C146" s="169"/>
+      <c r="D146" s="169"/>
+      <c r="E146" s="169"/>
+      <c r="F146" s="169"/>
+      <c r="G146" s="169"/>
+      <c r="H146" s="169"/>
+      <c r="I146" s="169"/>
+      <c r="J146" s="169"/>
+      <c r="K146" s="170"/>
       <c r="L146" s="29">
         <f>SUM(L125:L145)</f>
         <v>150592.56666666662</v>
@@ -12980,8 +12914,8 @@
         <v>139792.56666666662</v>
       </c>
       <c r="U146" s="31"/>
-      <c r="V146" s="105"/>
-      <c r="W146" s="106"/>
+      <c r="V146" s="104"/>
+      <c r="W146" s="105"/>
     </row>
     <row r="147" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A147" s="171" t="s">
@@ -12990,7 +12924,7 @@
       <c r="B147" s="172"/>
       <c r="C147" s="21"/>
       <c r="D147" s="22"/>
-      <c r="E147" s="98"/>
+      <c r="E147" s="97"/>
       <c r="F147" s="34"/>
       <c r="G147" s="24"/>
       <c r="H147" s="25"/>
@@ -13027,7 +12961,7 @@
       <c r="D148" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E148" s="98">
+      <c r="E148" s="97">
         <v>534.59</v>
       </c>
       <c r="F148" s="34">
@@ -13064,7 +12998,7 @@
         <f>P148+Q148</f>
         <v>400</v>
       </c>
-      <c r="S148" s="99">
+      <c r="S148" s="98">
         <f>R148+O148</f>
         <v>400</v>
       </c>
@@ -13090,10 +13024,10 @@
       <c r="C149" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D149" s="114" t="s">
+      <c r="D149" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="E149" s="98">
+      <c r="E149" s="97">
         <f>22515.6/2</f>
         <v>11257.8</v>
       </c>
@@ -13131,7 +13065,7 @@
         <f>P149+Q149</f>
         <v>400</v>
       </c>
-      <c r="S149" s="99">
+      <c r="S149" s="98">
         <f>R149+O149</f>
         <v>400</v>
       </c>
@@ -13152,15 +13086,15 @@
         <v>122</v>
       </c>
       <c r="B150" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D150" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C150" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="E150" s="98">
+      <c r="E150" s="97">
         <f>15208.8/2</f>
         <v>7604.4</v>
       </c>
@@ -13198,7 +13132,7 @@
         <f>P150+Q150</f>
         <v>400</v>
       </c>
-      <c r="S150" s="99">
+      <c r="S150" s="98">
         <f>R150+O150</f>
         <v>400</v>
       </c>
@@ -13214,19 +13148,19 @@
       <c r="W150" s="33"/>
     </row>
     <row r="151" spans="1:23" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="175" t="s">
+      <c r="A151" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="B151" s="176"/>
-      <c r="C151" s="176"/>
-      <c r="D151" s="176"/>
-      <c r="E151" s="176"/>
-      <c r="F151" s="176"/>
-      <c r="G151" s="176"/>
-      <c r="H151" s="176"/>
-      <c r="I151" s="176"/>
-      <c r="J151" s="176"/>
-      <c r="K151" s="177"/>
+      <c r="B151" s="169"/>
+      <c r="C151" s="169"/>
+      <c r="D151" s="169"/>
+      <c r="E151" s="169"/>
+      <c r="F151" s="169"/>
+      <c r="G151" s="169"/>
+      <c r="H151" s="169"/>
+      <c r="I151" s="169"/>
+      <c r="J151" s="169"/>
+      <c r="K151" s="170"/>
       <c r="L151" s="29">
         <f t="shared" ref="L151:T151" si="52">SUM(L148:L150)</f>
         <v>24208.1</v>
@@ -13264,23 +13198,23 @@
         <v>23008.1</v>
       </c>
       <c r="U151" s="31"/>
-      <c r="V151" s="105"/>
-      <c r="W151" s="106"/>
+      <c r="V151" s="104"/>
+      <c r="W151" s="105"/>
     </row>
     <row r="152" spans="1:23" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="131" t="s">
+      <c r="A152" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="B152" s="132"/>
-      <c r="C152" s="132"/>
-      <c r="D152" s="132"/>
-      <c r="E152" s="132"/>
-      <c r="F152" s="132"/>
-      <c r="G152" s="132"/>
-      <c r="H152" s="132"/>
-      <c r="I152" s="132"/>
-      <c r="J152" s="132"/>
-      <c r="K152" s="133"/>
+      <c r="B152" s="174"/>
+      <c r="C152" s="174"/>
+      <c r="D152" s="174"/>
+      <c r="E152" s="174"/>
+      <c r="F152" s="174"/>
+      <c r="G152" s="174"/>
+      <c r="H152" s="174"/>
+      <c r="I152" s="174"/>
+      <c r="J152" s="174"/>
+      <c r="K152" s="175"/>
       <c r="L152" s="29">
         <f>L151+L146+L123+L116+L105+L95+L91+L85+L59+L55+L51+L47+L41+L33+L133</f>
         <v>771944.4841666664</v>
@@ -13325,25 +13259,25 @@
       <c r="A153" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B153" s="134" t="s">
-        <v>234</v>
-      </c>
-      <c r="C153" s="135"/>
-      <c r="D153" s="135"/>
-      <c r="E153" s="135"/>
-      <c r="F153" s="135"/>
-      <c r="G153" s="135"/>
-      <c r="H153" s="135"/>
-      <c r="I153" s="135"/>
-      <c r="J153" s="135"/>
-      <c r="K153" s="135"/>
+      <c r="B153" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="C153" s="176"/>
+      <c r="D153" s="176"/>
+      <c r="E153" s="176"/>
+      <c r="F153" s="176"/>
+      <c r="G153" s="176"/>
+      <c r="H153" s="176"/>
+      <c r="I153" s="176"/>
+      <c r="J153" s="176"/>
+      <c r="K153" s="176"/>
       <c r="L153" s="39"/>
       <c r="M153" s="39"/>
       <c r="N153" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O153" s="92" t="s">
-        <v>254</v>
+      <c r="O153" s="91" t="s">
+        <v>252</v>
       </c>
       <c r="P153" s="40"/>
       <c r="Q153" s="40"/>
@@ -13372,13 +13306,13 @@
       <c r="N154" s="44"/>
       <c r="O154" s="43"/>
       <c r="P154" s="43"/>
-      <c r="Q154" s="136"/>
-      <c r="R154" s="136"/>
-      <c r="S154" s="136"/>
-      <c r="T154" s="136"/>
-      <c r="U154" s="136"/>
-      <c r="V154" s="136"/>
-      <c r="W154" s="137"/>
+      <c r="Q154" s="127"/>
+      <c r="R154" s="127"/>
+      <c r="S154" s="127"/>
+      <c r="T154" s="127"/>
+      <c r="U154" s="127"/>
+      <c r="V154" s="127"/>
+      <c r="W154" s="167"/>
     </row>
     <row r="155" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="42"/>
@@ -13407,11 +13341,11 @@
     </row>
     <row r="156" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="42"/>
-      <c r="B156" s="117" t="s">
+      <c r="B156" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="C156" s="117"/>
-      <c r="D156" s="117"/>
+      <c r="C156" s="116"/>
+      <c r="D156" s="116"/>
       <c r="E156" s="48"/>
       <c r="F156" s="48"/>
       <c r="G156" s="48"/>
@@ -13423,12 +13357,12 @@
       <c r="M156" s="43"/>
       <c r="N156" s="44"/>
       <c r="O156" s="43"/>
-      <c r="P156" s="117" t="s">
+      <c r="P156" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="Q156" s="117"/>
-      <c r="R156" s="117"/>
-      <c r="S156" s="117"/>
+      <c r="Q156" s="116"/>
+      <c r="R156" s="116"/>
+      <c r="S156" s="116"/>
       <c r="T156" s="48"/>
       <c r="U156" s="48"/>
       <c r="V156" s="46"/>
@@ -13436,34 +13370,34 @@
     </row>
     <row r="157" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A157" s="42"/>
-      <c r="B157" s="121" t="s">
+      <c r="B157" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C157" s="121"/>
-      <c r="D157" s="121"/>
-      <c r="E157" s="122" t="s">
+      <c r="C157" s="118"/>
+      <c r="D157" s="118"/>
+      <c r="E157" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F157" s="122"/>
-      <c r="G157" s="122"/>
-      <c r="H157" s="122"/>
-      <c r="I157" s="122"/>
-      <c r="J157" s="122"/>
-      <c r="K157" s="122"/>
+      <c r="F157" s="119"/>
+      <c r="G157" s="119"/>
+      <c r="H157" s="119"/>
+      <c r="I157" s="119"/>
+      <c r="J157" s="119"/>
+      <c r="K157" s="119"/>
       <c r="L157" s="50"/>
       <c r="M157" s="50"/>
       <c r="N157" s="44"/>
       <c r="O157" s="43"/>
-      <c r="P157" s="121" t="s">
+      <c r="P157" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="Q157" s="121"/>
-      <c r="R157" s="121"/>
-      <c r="S157" s="121"/>
-      <c r="T157" s="122" t="s">
+      <c r="Q157" s="118"/>
+      <c r="R157" s="118"/>
+      <c r="S157" s="118"/>
+      <c r="T157" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="U157" s="122"/>
+      <c r="U157" s="119"/>
       <c r="V157" s="46"/>
       <c r="W157" s="51" t="s">
         <v>43</v>
@@ -13471,16 +13405,16 @@
     </row>
     <row r="158" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A158" s="42"/>
-      <c r="B158" s="121"/>
-      <c r="C158" s="121"/>
-      <c r="D158" s="121"/>
-      <c r="E158" s="130"/>
-      <c r="F158" s="130"/>
-      <c r="G158" s="130"/>
-      <c r="H158" s="130"/>
-      <c r="I158" s="130"/>
-      <c r="J158" s="130"/>
-      <c r="K158" s="130"/>
+      <c r="B158" s="118"/>
+      <c r="C158" s="118"/>
+      <c r="D158" s="118"/>
+      <c r="E158" s="125"/>
+      <c r="F158" s="125"/>
+      <c r="G158" s="125"/>
+      <c r="H158" s="125"/>
+      <c r="I158" s="125"/>
+      <c r="J158" s="125"/>
+      <c r="K158" s="125"/>
       <c r="L158" s="50"/>
       <c r="M158" s="50"/>
       <c r="N158" s="44"/>
@@ -13499,13 +13433,13 @@
       <c r="B159" s="54"/>
       <c r="C159" s="54"/>
       <c r="D159" s="54"/>
-      <c r="E159" s="116"/>
-      <c r="F159" s="116"/>
-      <c r="G159" s="116"/>
-      <c r="H159" s="116"/>
-      <c r="I159" s="116"/>
-      <c r="J159" s="116"/>
-      <c r="K159" s="116"/>
+      <c r="E159" s="115"/>
+      <c r="F159" s="115"/>
+      <c r="G159" s="115"/>
+      <c r="H159" s="115"/>
+      <c r="I159" s="115"/>
+      <c r="J159" s="115"/>
+      <c r="K159" s="115"/>
       <c r="L159" s="55"/>
       <c r="M159" s="55"/>
       <c r="N159" s="56"/>
@@ -13523,31 +13457,31 @@
       <c r="A160" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B160" s="126" t="s">
-        <v>255</v>
-      </c>
-      <c r="C160" s="126"/>
-      <c r="D160" s="126"/>
-      <c r="E160" s="126"/>
-      <c r="F160" s="126"/>
-      <c r="G160" s="126"/>
-      <c r="H160" s="126"/>
-      <c r="I160" s="126"/>
-      <c r="J160" s="126"/>
-      <c r="K160" s="126"/>
+      <c r="B160" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="C160" s="121"/>
+      <c r="D160" s="121"/>
+      <c r="E160" s="121"/>
+      <c r="F160" s="121"/>
+      <c r="G160" s="121"/>
+      <c r="H160" s="121"/>
+      <c r="I160" s="121"/>
+      <c r="J160" s="121"/>
+      <c r="K160" s="121"/>
       <c r="L160" s="59"/>
       <c r="M160" s="59"/>
       <c r="N160" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="O160" s="93"/>
-      <c r="P160" s="128" t="s">
+      <c r="O160" s="92"/>
+      <c r="P160" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="Q160" s="128"/>
-      <c r="R160" s="128"/>
-      <c r="S160" s="128"/>
-      <c r="T160" s="128"/>
+      <c r="Q160" s="123"/>
+      <c r="R160" s="123"/>
+      <c r="S160" s="123"/>
+      <c r="T160" s="123"/>
       <c r="U160" s="58" t="s">
         <v>47</v>
       </c>
@@ -13558,30 +13492,30 @@
       <c r="A161" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B161" s="127"/>
-      <c r="C161" s="127"/>
-      <c r="D161" s="127"/>
-      <c r="E161" s="127"/>
-      <c r="F161" s="127"/>
-      <c r="G161" s="127"/>
-      <c r="H161" s="127"/>
-      <c r="I161" s="127"/>
-      <c r="J161" s="127"/>
-      <c r="K161" s="127"/>
+      <c r="B161" s="165"/>
+      <c r="C161" s="165"/>
+      <c r="D161" s="165"/>
+      <c r="E161" s="165"/>
+      <c r="F161" s="165"/>
+      <c r="G161" s="165"/>
+      <c r="H161" s="165"/>
+      <c r="I161" s="165"/>
+      <c r="J161" s="165"/>
+      <c r="K161" s="165"/>
       <c r="L161" s="62"/>
       <c r="M161" s="62"/>
       <c r="N161" s="44"/>
       <c r="O161" s="43"/>
-      <c r="P161" s="129"/>
-      <c r="Q161" s="129"/>
-      <c r="R161" s="129"/>
-      <c r="S161" s="129"/>
-      <c r="T161" s="129"/>
-      <c r="U161" s="118" t="s">
+      <c r="P161" s="166"/>
+      <c r="Q161" s="166"/>
+      <c r="R161" s="166"/>
+      <c r="S161" s="166"/>
+      <c r="T161" s="166"/>
+      <c r="U161" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="V161" s="119"/>
-      <c r="W161" s="120"/>
+      <c r="V161" s="163"/>
+      <c r="W161" s="164"/>
     </row>
     <row r="162" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="42"/>
@@ -13590,13 +13524,13 @@
       </c>
       <c r="C162" s="43"/>
       <c r="D162" s="43"/>
-      <c r="E162" s="130"/>
-      <c r="F162" s="130"/>
-      <c r="G162" s="130"/>
-      <c r="H162" s="130"/>
-      <c r="I162" s="130"/>
-      <c r="J162" s="130"/>
-      <c r="K162" s="130"/>
+      <c r="E162" s="125"/>
+      <c r="F162" s="125"/>
+      <c r="G162" s="125"/>
+      <c r="H162" s="125"/>
+      <c r="I162" s="125"/>
+      <c r="J162" s="125"/>
+      <c r="K162" s="125"/>
       <c r="L162" s="50"/>
       <c r="M162" s="50"/>
       <c r="N162" s="44"/>
@@ -13605,19 +13539,19 @@
       <c r="Q162" s="43"/>
       <c r="R162" s="43"/>
       <c r="S162" s="43"/>
-      <c r="U162" s="123" t="s">
+      <c r="U162" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="V162" s="124"/>
-      <c r="W162" s="125"/>
+      <c r="V162" s="161"/>
+      <c r="W162" s="162"/>
     </row>
     <row r="163" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="42"/>
-      <c r="B163" s="117" t="s">
+      <c r="B163" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="C163" s="117"/>
-      <c r="D163" s="117"/>
+      <c r="C163" s="116"/>
+      <c r="D163" s="116"/>
       <c r="E163" s="48"/>
       <c r="F163" s="48"/>
       <c r="G163" s="48"/>
@@ -13630,61 +13564,61 @@
       <c r="N163" s="44"/>
       <c r="O163" s="43"/>
       <c r="P163" s="43"/>
-      <c r="Q163" s="117" t="s">
+      <c r="Q163" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="R163" s="117"/>
-      <c r="S163" s="117"/>
-      <c r="U163" s="118" t="s">
+      <c r="R163" s="116"/>
+      <c r="S163" s="116"/>
+      <c r="U163" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="V163" s="119"/>
-      <c r="W163" s="120"/>
+      <c r="V163" s="163"/>
+      <c r="W163" s="164"/>
     </row>
     <row r="164" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="42"/>
-      <c r="B164" s="121" t="s">
+      <c r="B164" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="C164" s="121"/>
-      <c r="D164" s="121"/>
-      <c r="E164" s="122" t="s">
+      <c r="C164" s="118"/>
+      <c r="D164" s="118"/>
+      <c r="E164" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F164" s="122"/>
-      <c r="G164" s="122"/>
-      <c r="H164" s="122"/>
-      <c r="I164" s="122"/>
-      <c r="J164" s="122"/>
-      <c r="K164" s="122"/>
+      <c r="F164" s="119"/>
+      <c r="G164" s="119"/>
+      <c r="H164" s="119"/>
+      <c r="I164" s="119"/>
+      <c r="J164" s="119"/>
+      <c r="K164" s="119"/>
       <c r="L164" s="50"/>
       <c r="M164" s="50"/>
       <c r="N164" s="44"/>
       <c r="O164" s="43"/>
       <c r="P164" s="1"/>
-      <c r="Q164" s="121" t="s">
+      <c r="Q164" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="R164" s="121"/>
-      <c r="S164" s="121"/>
-      <c r="U164" s="123" t="s">
+      <c r="R164" s="118"/>
+      <c r="S164" s="118"/>
+      <c r="U164" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="V164" s="124"/>
-      <c r="W164" s="125"/>
+      <c r="V164" s="161"/>
+      <c r="W164" s="162"/>
     </row>
     <row r="165" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="53"/>
       <c r="B165" s="57"/>
       <c r="C165" s="57"/>
       <c r="D165" s="54"/>
-      <c r="E165" s="116"/>
-      <c r="F165" s="116"/>
-      <c r="G165" s="116"/>
-      <c r="H165" s="116"/>
-      <c r="I165" s="116"/>
-      <c r="J165" s="116"/>
-      <c r="K165" s="116"/>
+      <c r="E165" s="115"/>
+      <c r="F165" s="115"/>
+      <c r="G165" s="115"/>
+      <c r="H165" s="115"/>
+      <c r="I165" s="115"/>
+      <c r="J165" s="115"/>
+      <c r="K165" s="115"/>
       <c r="L165" s="55"/>
       <c r="M165" s="55"/>
       <c r="N165" s="56"/>
